--- a/public/sense/media/contoh-format-import-excel.xlsx
+++ b/public/sense/media/contoh-format-import-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\comtelindo-erp\public\sense\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83AA470-BBAA-41A6-9CB5-48A51AB0C2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C31CA-367D-4AB6-ACD5-170B2C63127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05CB2B49-9C0F-4C32-96F9-A5632479557A}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>birthdate format:Y-m-d</t>
   </si>
   <si>
-    <t>identity_expire_date format:Y-m-d</t>
-  </si>
-  <si>
     <t>join_date format:Y-m-d</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Administrator</t>
+  </si>
+  <si>
+    <t>identity_expire_date format:Y-m-d [nullable]</t>
   </si>
 </sst>
 </file>
@@ -231,9 +231,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -553,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6CC2F-74AB-447B-BED6-0DDB656F04D5}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +570,7 @@
     <col min="15" max="15" width="66.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.77734375" bestFit="1" customWidth="1"/>
@@ -605,17 +604,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
+      <c r="F1" t="s">
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
         <v>43</v>
@@ -624,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
@@ -642,7 +641,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -660,10 +659,10 @@
         <v>33</v>
       </c>
       <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
         <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
       </c>
       <c r="Z1" t="s">
         <v>36</v>
@@ -697,7 +696,7 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2">
@@ -719,10 +718,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -745,8 +744,8 @@
       <c r="Q2">
         <v>1312313213</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>50</v>
+      <c r="R2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S2">
         <v>76114</v>
@@ -763,8 +762,8 @@
       <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>50</v>
+      <c r="X2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
         <v>35</v>

--- a/public/sense/media/contoh-format-import-excel.xlsx
+++ b/public/sense/media/contoh-format-import-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\comtelindo-erp\public\sense\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C31CA-367D-4AB6-ACD5-170B2C63127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E2D07-7F27-4A87-8262-CD85E3CAF480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05CB2B49-9C0F-4C32-96F9-A5632479557A}"/>
   </bookViews>
@@ -168,25 +168,25 @@
     <t>team [tergantung database team]</t>
   </si>
   <si>
-    <t>division [tergantung database division]</t>
-  </si>
-  <si>
-    <t>department [tergantung database department]</t>
-  </si>
-  <si>
     <t>2003-06-19</t>
   </si>
   <si>
     <t>marital_status ['Belum Kawin','Kawin','Cerai Hidup','Cerai Mati']</t>
   </si>
   <si>
-    <t>job_level [tergantung databse job level]</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
     <t>identity_expire_date format:Y-m-d [nullable]</t>
+  </si>
+  <si>
+    <t>organiztion [tergantung database organization]</t>
+  </si>
+  <si>
+    <t>job_position [tergantung database job_position]</t>
+  </si>
+  <si>
+    <t>job_level (role) [tergantung databse job level]</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6CC2F-74AB-447B-BED6-0DDB656F04D5}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,16 +605,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
         <v>43</v>
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
@@ -641,7 +641,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -718,10 +718,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -745,7 +745,7 @@
         <v>1312313213</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S2">
         <v>76114</v>
@@ -763,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z2" t="s">
         <v>35</v>
